--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Bulk run" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="weekly run" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,36 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Company</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ticker Symbol</t>
   </si>
   <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>SSNLF</t>
+    <t>DELL</t>
   </si>
   <si>
     <t>Dell</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>WMT</t>
   </si>
 </sst>
 </file>
@@ -52,18 +39,18 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,10 +90,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -124,40 +107,40 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -309,7 +292,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -333,53 +316,6 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
